--- a/img/OptAna.xlsx
+++ b/img/OptAna.xlsx
@@ -721,16 +721,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1106,7 +1106,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A27" workbookViewId="0">
       <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
